--- a/output/kossutha/2023/sheets/year_2023.xlsx
+++ b/output/kossutha/2023/sheets/year_2023.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>28.87096774193548</v>
+        <v>41.2235553666365</v>
       </c>
       <c r="C2" t="n">
-        <v>17.98709677419355</v>
+        <v>39.15404287539113</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>36.76785714285715</v>
+        <v>41.80650799724625</v>
       </c>
       <c r="C3" t="n">
-        <v>21.45357142857143</v>
+        <v>38.00951000258934</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>32.63870967741936</v>
+        <v>40.7118397198806</v>
       </c>
       <c r="C4" t="n">
-        <v>26.31612903225806</v>
+        <v>39.31015975949377</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26.37666666666667</v>
+        <v>38.88675118339618</v>
       </c>
       <c r="C5" t="n">
-        <v>19.60666666666666</v>
+        <v>39.52943185988999</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.5741935483871</v>
+        <v>39.46422326749564</v>
       </c>
       <c r="C6" t="n">
-        <v>12.71290322580645</v>
+        <v>39.6988918179154</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25.84666666666667</v>
+        <v>42.08037092585584</v>
       </c>
       <c r="C7" t="n">
-        <v>18.19333333333334</v>
+        <v>39.60558412929653</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>38.12903225806452</v>
+        <v>41.00647401555791</v>
       </c>
       <c r="C8" t="n">
-        <v>31.81935483870968</v>
+        <v>38.45284711959415</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.93225806451613</v>
+        <v>41.50083887979448</v>
       </c>
       <c r="C9" t="n">
-        <v>17.85483870967742</v>
+        <v>37.59789831950241</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.43666666666666</v>
+        <v>50.19402451628704</v>
       </c>
       <c r="C10" t="n">
-        <v>26.70666666666667</v>
+        <v>46.47470760509692</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.5258064516129</v>
+        <v>41.83072010843676</v>
       </c>
       <c r="C11" t="n">
-        <v>30.66451612903225</v>
+        <v>39.51075191517901</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.40333333333333</v>
+        <v>41.31768861676257</v>
       </c>
       <c r="C12" t="n">
-        <v>18.8</v>
+        <v>39.42988391195603</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.51935483870968</v>
+        <v>40.27456513330109</v>
       </c>
       <c r="C13" t="n">
-        <v>22.83870967741936</v>
+        <v>37.73147586473409</v>
       </c>
     </row>
   </sheetData>
